--- a/db/seeds_databases/washes_db.xlsx
+++ b/db/seeds_databases/washes_db.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27907"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/medularis/Library/Containers/com.microsoft.Excel/Data/Desktop/DesafioLatam/50-Parkwash/parkwash_rails_v2/db/seeds_databases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrator/Desktop/Proyectos-Rails/parkwash/parkwash2-master/db/seeds_databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE734E-A302-2046-9CA0-D2FA9A47C164}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{794C3B0D-83CC-FB4B-9F35-ABB37469BE9A}"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$144</definedName>
+  </definedNames>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -51,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
@@ -409,11 +417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE219BE9-1B1B-644B-8875-F38E4775E475}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,7 +471,8 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -486,7 +495,8 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(1,10)</f>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -509,7 +519,8 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -532,7 +543,8 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>13</v>
@@ -555,7 +567,8 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -578,7 +591,8 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>30</v>
@@ -601,7 +615,8 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -624,7 +639,8 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -647,7 +663,8 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>27</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -670,7 +687,8 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>11</v>
@@ -693,6 +711,7 @@
         <v>3</v>
       </c>
       <c r="E12">
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="F12">
@@ -716,7 +735,8 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -739,7 +759,8 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>17</v>
@@ -762,7 +783,8 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -785,7 +807,8 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>23</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -808,7 +831,8 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>26</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>9</v>
@@ -831,7 +855,8 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -854,7 +879,8 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="F19">
         <v>42</v>
@@ -877,7 +903,8 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -900,7 +927,8 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>29</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F21">
         <v>18</v>
@@ -923,7 +951,8 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -946,7 +975,8 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -969,7 +999,8 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -992,7 +1023,8 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1015,7 +1047,8 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F26">
         <v>39</v>
@@ -1038,7 +1071,8 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F27">
         <v>14</v>
@@ -1061,7 +1095,8 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>21</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -1084,7 +1119,8 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1107,7 +1143,8 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F30">
         <v>12</v>
@@ -1130,7 +1167,8 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -1153,7 +1191,8 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -1176,7 +1215,8 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>22</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>8</v>
@@ -1199,7 +1239,8 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>26</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="F34">
         <v>9</v>
@@ -1222,7 +1263,8 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>50</v>
@@ -1245,7 +1287,11 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>42</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1262,7 +1308,8 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>46</v>
@@ -1285,7 +1332,8 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F38">
         <v>23</v>
@@ -1308,7 +1356,8 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="F39">
         <v>44</v>
@@ -1331,7 +1380,8 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F40">
         <v>38</v>
@@ -1354,7 +1404,8 @@
         <v>4</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>33</v>
@@ -1377,7 +1428,8 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>27</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="F42">
         <v>40</v>
@@ -1400,7 +1452,8 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F43">
         <v>36</v>
@@ -1423,7 +1476,8 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F44">
         <v>47</v>
@@ -1446,7 +1500,8 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>29</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F45">
         <v>29</v>
@@ -1469,7 +1524,8 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F46">
         <v>19</v>
@@ -1492,7 +1548,8 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F47">
         <v>37</v>
@@ -1515,7 +1572,8 @@
         <v>4</v>
       </c>
       <c r="E48">
-        <v>32</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F48">
         <v>35</v>
@@ -1538,7 +1596,11 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>42</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1555,7 +1617,8 @@
         <v>4</v>
       </c>
       <c r="E50">
-        <v>16</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -1578,7 +1641,8 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <v>26</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F51">
         <v>22</v>
@@ -1601,7 +1665,8 @@
         <v>4</v>
       </c>
       <c r="E52">
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="F52">
         <v>30</v>
@@ -1624,7 +1689,8 @@
         <v>4</v>
       </c>
       <c r="E53">
-        <v>27</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="F53">
         <v>40</v>
@@ -1647,7 +1713,8 @@
         <v>4</v>
       </c>
       <c r="E54">
-        <v>33</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="F54">
         <v>43</v>
@@ -1670,7 +1737,8 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F55">
         <v>44</v>
@@ -1693,7 +1761,8 @@
         <v>4</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F56">
         <v>23</v>
@@ -1716,6 +1785,7 @@
         <v>4</v>
       </c>
       <c r="E57">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="F57">
@@ -1739,6 +1809,7 @@
         <v>4</v>
       </c>
       <c r="E58">
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="F58">
@@ -1762,7 +1833,8 @@
         <v>4</v>
       </c>
       <c r="E59">
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="F59">
         <v>24</v>
@@ -1785,7 +1857,8 @@
         <v>4</v>
       </c>
       <c r="E60">
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="F60">
         <v>48</v>
@@ -1808,7 +1881,8 @@
         <v>4</v>
       </c>
       <c r="E61">
-        <v>34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="F61">
         <v>21</v>
@@ -1831,7 +1905,8 @@
         <v>5</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F62">
         <v>41</v>
@@ -1854,6 +1929,7 @@
         <v>5</v>
       </c>
       <c r="E63">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="F63">
@@ -1877,7 +1953,8 @@
         <v>5</v>
       </c>
       <c r="E64">
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F64">
         <v>33</v>
@@ -1900,7 +1977,8 @@
         <v>5</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="F65">
         <v>36</v>
@@ -1923,7 +2001,8 @@
         <v>5</v>
       </c>
       <c r="E66">
-        <v>21</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F66">
         <v>26</v>
@@ -1946,7 +2025,8 @@
         <v>5</v>
       </c>
       <c r="E67">
-        <v>27</v>
+        <f t="shared" ref="E67:E130" ca="1" si="1">RANDBETWEEN(1,10)</f>
+        <v>6</v>
       </c>
       <c r="F67">
         <v>40</v>
@@ -1969,7 +2049,8 @@
         <v>5</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="F68">
         <v>48</v>
@@ -1992,7 +2073,8 @@
         <v>5</v>
       </c>
       <c r="E69">
-        <v>33</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="F69">
         <v>43</v>
@@ -2015,7 +2097,8 @@
         <v>5</v>
       </c>
       <c r="E70">
-        <v>23</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F70">
         <v>20</v>
@@ -2038,7 +2121,8 @@
         <v>5</v>
       </c>
       <c r="E71">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="F71">
         <v>28</v>
@@ -2061,7 +2145,8 @@
         <v>5</v>
       </c>
       <c r="E72">
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F72">
         <v>30</v>
@@ -2084,7 +2169,8 @@
         <v>5</v>
       </c>
       <c r="E73">
-        <v>35</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -2107,7 +2193,11 @@
         <v>5</v>
       </c>
       <c r="E74">
-        <v>42</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2124,7 +2214,8 @@
         <v>5</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F75">
         <v>38</v>
@@ -2147,7 +2238,8 @@
         <v>5</v>
       </c>
       <c r="E76">
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F76">
         <v>39</v>
@@ -2170,7 +2262,8 @@
         <v>5</v>
       </c>
       <c r="E77">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F77">
         <v>44</v>
@@ -2193,7 +2286,8 @@
         <v>5</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F78">
         <v>25</v>
@@ -2216,7 +2310,8 @@
         <v>5</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F79">
         <v>23</v>
@@ -2239,7 +2334,8 @@
         <v>5</v>
       </c>
       <c r="E80">
-        <v>27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="F80">
         <v>40</v>
@@ -2262,7 +2358,8 @@
         <v>5</v>
       </c>
       <c r="E81">
-        <v>32</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -2285,7 +2382,8 @@
         <v>5</v>
       </c>
       <c r="E82">
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="F82">
         <v>36</v>
@@ -2308,7 +2406,8 @@
         <v>5</v>
       </c>
       <c r="E83">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="F83">
         <v>33</v>
@@ -2331,7 +2430,8 @@
         <v>5</v>
       </c>
       <c r="E84">
-        <v>21</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="F84">
         <v>27</v>
@@ -2354,7 +2454,8 @@
         <v>5</v>
       </c>
       <c r="E85">
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F85">
         <v>51</v>
@@ -2377,7 +2478,8 @@
         <v>5</v>
       </c>
       <c r="E86">
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="F86">
         <v>24</v>
@@ -2400,7 +2502,8 @@
         <v>5</v>
       </c>
       <c r="E87">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>44</v>
@@ -2423,7 +2526,8 @@
         <v>5</v>
       </c>
       <c r="E88">
-        <v>27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F88">
         <v>49</v>
@@ -2446,7 +2550,11 @@
         <v>5</v>
       </c>
       <c r="E89">
-        <v>42</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2463,6 +2571,7 @@
         <v>5</v>
       </c>
       <c r="E90">
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="F90">
@@ -2486,7 +2595,8 @@
         <v>5</v>
       </c>
       <c r="E91">
-        <v>26</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F91">
         <v>22</v>
@@ -2509,7 +2619,8 @@
         <v>5</v>
       </c>
       <c r="E92">
-        <v>21</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F92">
         <v>27</v>
@@ -2532,7 +2643,8 @@
         <v>5</v>
       </c>
       <c r="E93">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="F93">
         <v>45</v>
@@ -2555,7 +2667,11 @@
         <v>5</v>
       </c>
       <c r="E94">
-        <v>42</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2572,7 +2688,8 @@
         <v>5</v>
       </c>
       <c r="E95">
-        <v>27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="F95">
         <v>49</v>
@@ -2595,7 +2712,8 @@
         <v>5</v>
       </c>
       <c r="E96">
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="F96">
         <v>48</v>
@@ -2618,7 +2736,8 @@
         <v>5</v>
       </c>
       <c r="E97">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F97">
         <v>44</v>
@@ -2641,7 +2760,8 @@
         <v>5</v>
       </c>
       <c r="E98">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="F98">
         <v>25</v>
@@ -2664,7 +2784,8 @@
         <v>5</v>
       </c>
       <c r="E99">
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F99">
         <v>51</v>
@@ -2687,7 +2808,11 @@
         <v>5</v>
       </c>
       <c r="E100">
-        <v>42</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -2704,7 +2829,8 @@
         <v>6</v>
       </c>
       <c r="E101">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>58</v>
@@ -2727,7 +2853,11 @@
         <v>6</v>
       </c>
       <c r="E102">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -2744,7 +2874,8 @@
         <v>6</v>
       </c>
       <c r="E103">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="F103">
         <v>56</v>
@@ -2767,7 +2898,8 @@
         <v>6</v>
       </c>
       <c r="E104">
-        <v>33</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F104">
         <v>64</v>
@@ -2790,7 +2922,8 @@
         <v>6</v>
       </c>
       <c r="E105">
-        <v>27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="F105">
         <v>54</v>
@@ -2813,7 +2946,11 @@
         <v>6</v>
       </c>
       <c r="E106">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -2830,7 +2967,8 @@
         <v>6</v>
       </c>
       <c r="E107">
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F107">
         <v>51</v>
@@ -2853,7 +2991,11 @@
         <v>6</v>
       </c>
       <c r="E108">
-        <v>36</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -2870,7 +3012,8 @@
         <v>6</v>
       </c>
       <c r="E109">
-        <v>21</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F109">
         <v>57</v>
@@ -2893,7 +3036,8 @@
         <v>6</v>
       </c>
       <c r="E110">
-        <v>37</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F110">
         <v>55</v>
@@ -2916,7 +3060,8 @@
         <v>6</v>
       </c>
       <c r="E111">
-        <v>38</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="F111">
         <v>52</v>
@@ -2939,7 +3084,11 @@
         <v>6</v>
       </c>
       <c r="E112">
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -2956,7 +3105,8 @@
         <v>6</v>
       </c>
       <c r="E113">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F113">
         <v>61</v>
@@ -2979,7 +3129,11 @@
         <v>6</v>
       </c>
       <c r="E114">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -2996,7 +3150,11 @@
         <v>6</v>
       </c>
       <c r="E115">
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -3013,7 +3171,11 @@
         <v>6</v>
       </c>
       <c r="E116">
-        <v>27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -3030,7 +3192,8 @@
         <v>6</v>
       </c>
       <c r="E117">
-        <v>39</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F117">
         <v>65</v>
@@ -3053,7 +3216,8 @@
         <v>6</v>
       </c>
       <c r="E118">
-        <v>33</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F118">
         <v>64</v>
@@ -3076,7 +3240,8 @@
         <v>6</v>
       </c>
       <c r="E119">
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F119">
         <v>63</v>
@@ -3099,7 +3264,11 @@
         <v>6</v>
       </c>
       <c r="E120">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -3116,7 +3285,11 @@
         <v>6</v>
       </c>
       <c r="E121">
-        <v>38</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -3133,7 +3306,11 @@
         <v>6</v>
       </c>
       <c r="E122">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -3150,7 +3327,11 @@
         <v>6</v>
       </c>
       <c r="E123">
-        <v>21</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -3167,7 +3348,8 @@
         <v>6</v>
       </c>
       <c r="E124">
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="F124">
         <v>62</v>
@@ -3190,7 +3372,8 @@
         <v>6</v>
       </c>
       <c r="E125">
-        <v>40</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F125">
         <v>53</v>
@@ -3213,7 +3396,8 @@
         <v>6</v>
       </c>
       <c r="E126">
-        <v>39</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -3236,7 +3420,11 @@
         <v>6</v>
       </c>
       <c r="E127">
-        <v>37</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -3253,7 +3441,11 @@
         <v>6</v>
       </c>
       <c r="E128">
-        <v>27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -3270,7 +3462,11 @@
         <v>6</v>
       </c>
       <c r="E129">
-        <v>38</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -3287,7 +3483,11 @@
         <v>6</v>
       </c>
       <c r="E130">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -3304,7 +3504,11 @@
         <v>6</v>
       </c>
       <c r="E131">
+        <f t="shared" ref="E131:E144" ca="1" si="2">RANDBETWEEN(1,10)</f>
         <v>10</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -3321,7 +3525,11 @@
         <v>6</v>
       </c>
       <c r="E132">
-        <v>19</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -3338,7 +3546,11 @@
         <v>6</v>
       </c>
       <c r="E133">
-        <v>27</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -3355,7 +3567,11 @@
         <v>6</v>
       </c>
       <c r="E134">
-        <v>42</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -3372,7 +3588,8 @@
         <v>6</v>
       </c>
       <c r="E135">
-        <v>40</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="F135">
         <v>53</v>
@@ -3395,7 +3612,11 @@
         <v>6</v>
       </c>
       <c r="E136">
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -3412,7 +3633,11 @@
         <v>6</v>
       </c>
       <c r="E137">
-        <v>23</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -3429,7 +3654,11 @@
         <v>6</v>
       </c>
       <c r="E138">
-        <v>26</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -3446,7 +3675,11 @@
         <v>6</v>
       </c>
       <c r="E139">
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -3463,6 +3696,7 @@
         <v>6</v>
       </c>
       <c r="E140">
+        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
       <c r="F140">
@@ -3486,7 +3720,11 @@
         <v>6</v>
       </c>
       <c r="E141">
-        <v>9</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -3503,7 +3741,8 @@
         <v>6</v>
       </c>
       <c r="E142">
-        <v>40</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F142">
         <v>60</v>
@@ -3526,7 +3765,11 @@
         <v>6</v>
       </c>
       <c r="E143">
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -3543,7 +3786,11 @@
         <v>6</v>
       </c>
       <c r="E144">
-        <v>21</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
